--- a/results/mp/logistic/corona/confidence/168/stop-words-masking-0.15/avg_0.002_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/168/stop-words-masking-0.15/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="108">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,117 +40,120 @@
     <t>name</t>
   </si>
   <si>
-    <t>death</t>
-  </si>
-  <si>
-    <t>arrested</t>
+    <t>fraud</t>
+  </si>
+  <si>
+    <t>crisis</t>
   </si>
   <si>
     <t>crude</t>
   </si>
   <si>
-    <t>crisis</t>
+    <t>forced</t>
+  </si>
+  <si>
+    <t>kill</t>
+  </si>
+  <si>
+    <t>died</t>
   </si>
   <si>
     <t>war</t>
   </si>
   <si>
-    <t>kill</t>
-  </si>
-  <si>
-    <t>fraud</t>
+    <t>lowest</t>
+  </si>
+  <si>
+    <t>die</t>
   </si>
   <si>
     <t>collapse</t>
   </si>
   <si>
+    <t>hell</t>
+  </si>
+  <si>
     <t>infected</t>
   </si>
   <si>
-    <t>die</t>
-  </si>
-  <si>
-    <t>forced</t>
-  </si>
-  <si>
-    <t>died</t>
-  </si>
-  <si>
-    <t>hell</t>
-  </si>
-  <si>
-    <t>lowest</t>
-  </si>
-  <si>
     <t>warning</t>
   </si>
   <si>
+    <t>drop</t>
+  </si>
+  <si>
+    <t>problem</t>
+  </si>
+  <si>
     <t>sc</t>
   </si>
   <si>
-    <t>drop</t>
+    <t>pressure</t>
   </si>
   <si>
     <t>panic</t>
   </si>
   <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>cancelled</t>
+  </si>
+  <si>
     <t>fears</t>
   </si>
   <si>
-    <t>cancelled</t>
+    <t>anxiety</t>
   </si>
   <si>
     <t>falling</t>
   </si>
   <si>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>lower</t>
+  </si>
+  <si>
     <t>recession</t>
   </si>
   <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>anxiety</t>
-  </si>
-  <si>
     <t>sick</t>
   </si>
   <si>
-    <t>problem</t>
-  </si>
-  <si>
-    <t>fuck</t>
-  </si>
-  <si>
     <t>emergency</t>
   </si>
   <si>
+    <t>shame</t>
+  </si>
+  <si>
+    <t>cut</t>
+  </si>
+  <si>
     <t>avoid</t>
   </si>
   <si>
-    <t>cut</t>
-  </si>
-  <si>
-    <t>lower</t>
+    <t>empty</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>risk</t>
   </si>
   <si>
     <t>stop</t>
   </si>
   <si>
-    <t>risk</t>
-  </si>
-  <si>
-    <t>empty</t>
-  </si>
-  <si>
-    <t>fight</t>
-  </si>
-  <si>
     <t>demand</t>
   </si>
   <si>
     <t>oil</t>
   </si>
   <si>
+    <t>prices</t>
+  </si>
+  <si>
     <t>co</t>
   </si>
   <si>
@@ -160,157 +163,178 @@
     <t>negative</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
-    <t>love</t>
+    <t>friend</t>
   </si>
   <si>
     <t>happy</t>
   </si>
   <si>
+    <t>wow</t>
+  </si>
+  <si>
     <t>free</t>
   </si>
   <si>
-    <t>friend</t>
-  </si>
-  <si>
     <t>great</t>
   </si>
   <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
     <t>special</t>
   </si>
   <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
     <t>better</t>
   </si>
   <si>
-    <t>fresh</t>
+    <t>wish</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>god</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>save</t>
   </si>
   <si>
     <t>ensure</t>
   </si>
   <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
     <t>gt</t>
   </si>
   <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>save</t>
+    <t>funny</t>
+  </si>
+  <si>
+    <t>growth</t>
+  </si>
+  <si>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>help</t>
   </si>
   <si>
     <t>relief</t>
   </si>
   <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
     <t>hope</t>
   </si>
   <si>
-    <t>funny</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>help</t>
+    <t>boost</t>
   </si>
   <si>
     <t>ready</t>
   </si>
   <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>growth</t>
-  </si>
-  <si>
-    <t>giving</t>
-  </si>
-  <si>
     <t>share</t>
   </si>
   <si>
     <t>healthy</t>
   </si>
   <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>dear</t>
+  </si>
+  <si>
     <t>care</t>
   </si>
   <si>
     <t>safety</t>
   </si>
   <si>
-    <t>alert</t>
-  </si>
-  <si>
     <t>important</t>
   </si>
   <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
     <t>helping</t>
   </si>
   <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>sure</t>
+    <t>give</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>check</t>
   </si>
   <si>
     <t>keep</t>
   </si>
   <si>
-    <t>check</t>
+    <t>shop</t>
   </si>
   <si>
     <t>corona</t>
@@ -671,7 +695,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q54"/>
+  <dimension ref="A1:Q61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -679,10 +703,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -740,13 +764,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8666666666666667</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="C3">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="D3">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -758,31 +782,31 @@
         <v>0</v>
       </c>
       <c r="H3">
+        <v>7</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K3">
+        <v>0.9565217391304348</v>
+      </c>
+      <c r="L3">
+        <v>44</v>
+      </c>
+      <c r="M3">
+        <v>44</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q3">
         <v>2</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="K3">
-        <v>0.9491525423728814</v>
-      </c>
-      <c r="L3">
-        <v>56</v>
-      </c>
-      <c r="M3">
-        <v>56</v>
-      </c>
-      <c r="N3">
-        <v>1</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -790,13 +814,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8666666666666667</v>
+        <v>0.8047945205479452</v>
       </c>
       <c r="C4">
-        <v>13</v>
+        <v>235</v>
       </c>
       <c r="D4">
-        <v>13</v>
+        <v>235</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -808,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>57</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K4">
-        <v>0.9347826086956522</v>
+        <v>0.9152542372881356</v>
       </c>
       <c r="L4">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="M4">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -832,7 +856,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -840,13 +864,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8235294117647058</v>
+        <v>0.7941176470588235</v>
       </c>
       <c r="C5">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D5">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -858,19 +882,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K5">
-        <v>0.9230769230769231</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="L5">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="M5">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -890,13 +914,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8082191780821918</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="C6">
-        <v>236</v>
+        <v>23</v>
       </c>
       <c r="D6">
-        <v>236</v>
+        <v>23</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -908,19 +932,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>56</v>
+        <v>6</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K6">
-        <v>0.9166666666666666</v>
+        <v>0.8846153846153846</v>
       </c>
       <c r="L6">
-        <v>110</v>
+        <v>23</v>
       </c>
       <c r="M6">
-        <v>110</v>
+        <v>23</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -932,7 +956,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -943,10 +967,10 @@
         <v>0.7894736842105263</v>
       </c>
       <c r="C7">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D7">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -958,19 +982,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K7">
-        <v>0.8947368421052632</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="L7">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="M7">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -990,13 +1014,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7894736842105263</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="C8">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D8">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1008,19 +1032,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K8">
-        <v>0.875</v>
+        <v>0.8583333333333333</v>
       </c>
       <c r="L8">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="M8">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1032,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1040,13 +1064,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7777777777777778</v>
+        <v>0.7631578947368421</v>
       </c>
       <c r="C9">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D9">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1058,19 +1082,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K9">
-        <v>0.8333333333333334</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L9">
-        <v>30</v>
+        <v>96</v>
       </c>
       <c r="M9">
-        <v>30</v>
+        <v>96</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1082,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1090,13 +1114,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7666666666666667</v>
+        <v>0.7391304347826086</v>
       </c>
       <c r="C10">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D10">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1108,19 +1132,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K10">
-        <v>0.8198433420365535</v>
+        <v>0.7989556135770235</v>
       </c>
       <c r="L10">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="M10">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1132,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>69</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1140,13 +1164,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.7368421052631579</v>
+        <v>0.7297297297297297</v>
       </c>
       <c r="C11">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="D11">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1158,19 +1182,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K11">
-        <v>0.8181818181818182</v>
+        <v>0.7926829268292683</v>
       </c>
       <c r="L11">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="M11">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1182,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1190,13 +1214,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.7297297297297297</v>
+        <v>0.7</v>
       </c>
       <c r="C12">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D12">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1208,19 +1232,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K12">
-        <v>0.8046875</v>
+        <v>0.7887323943661971</v>
       </c>
       <c r="L12">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="M12">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1232,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1240,13 +1264,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.7241379310344828</v>
+        <v>0.6956521739130435</v>
       </c>
       <c r="C13">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D13">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1258,19 +1282,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K13">
-        <v>0.7926829268292683</v>
+        <v>0.7878787878787878</v>
       </c>
       <c r="L13">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="M13">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1282,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1290,13 +1314,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.6923076923076923</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C14">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D14">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1308,19 +1332,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K14">
-        <v>0.7924528301886793</v>
+        <v>0.78125</v>
       </c>
       <c r="L14">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="M14">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1332,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1340,13 +1364,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.6521739130434783</v>
+        <v>0.64</v>
       </c>
       <c r="C15">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D15">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1358,19 +1382,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K15">
         <v>0.7777777777777778</v>
       </c>
       <c r="L15">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="M15">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1382,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1390,13 +1414,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.6521739130434783</v>
+        <v>0.559322033898305</v>
       </c>
       <c r="C16">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="D16">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1408,19 +1432,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K16">
-        <v>0.7777777777777778</v>
+        <v>0.7758620689655172</v>
       </c>
       <c r="L16">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="M16">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1432,7 +1456,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1440,13 +1464,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.6</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="C17">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D17">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1458,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K17">
-        <v>0.7659574468085106</v>
+        <v>0.7735849056603774</v>
       </c>
       <c r="L17">
-        <v>36</v>
+        <v>82</v>
       </c>
       <c r="M17">
-        <v>36</v>
+        <v>82</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1482,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>11</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1490,13 +1514,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.5343915343915344</v>
+        <v>0.5185185185185185</v>
       </c>
       <c r="C18">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D18">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1508,19 +1532,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K18">
-        <v>0.7586206896551724</v>
+        <v>0.7727272727272727</v>
       </c>
       <c r="L18">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="M18">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1532,7 +1556,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1540,13 +1564,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.5254237288135594</v>
+        <v>0.5185185185185185</v>
       </c>
       <c r="C19">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="D19">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1558,19 +1582,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K19">
-        <v>0.75</v>
+        <v>0.75625</v>
       </c>
       <c r="L19">
-        <v>27</v>
+        <v>121</v>
       </c>
       <c r="M19">
-        <v>27</v>
+        <v>121</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1582,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>9</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1590,13 +1614,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.5174418604651163</v>
+        <v>0.5116279069767442</v>
       </c>
       <c r="C20">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D20">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1608,19 +1632,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K20">
-        <v>0.7394366197183099</v>
+        <v>0.7446808510638298</v>
       </c>
       <c r="L20">
-        <v>105</v>
+        <v>35</v>
       </c>
       <c r="M20">
-        <v>105</v>
+        <v>35</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1632,7 +1656,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>37</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1640,13 +1664,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.5098039215686274</v>
+        <v>0.5033557046979866</v>
       </c>
       <c r="C21">
-        <v>26</v>
+        <v>75</v>
       </c>
       <c r="D21">
-        <v>26</v>
+        <v>75</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1658,19 +1682,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>25</v>
+        <v>74</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K21">
-        <v>0.73125</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="L21">
-        <v>117</v>
+        <v>20</v>
       </c>
       <c r="M21">
-        <v>117</v>
+        <v>20</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1682,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>43</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1711,16 +1735,16 @@
         <v>13</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K22">
-        <v>0.7301587301587301</v>
+        <v>0.7291666666666666</v>
       </c>
       <c r="L22">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="M22">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1732,7 +1756,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1740,13 +1764,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.5</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="C23">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D23">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1758,19 +1782,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K23">
-        <v>0.7291666666666666</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L23">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="M23">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1782,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1790,13 +1814,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.4838709677419355</v>
+        <v>0.4516129032258064</v>
       </c>
       <c r="C24">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D24">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1808,19 +1832,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K24">
-        <v>0.7083333333333334</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L24">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="M24">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1832,7 +1856,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1840,13 +1864,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.4832214765100671</v>
+        <v>0.45</v>
       </c>
       <c r="C25">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="D25">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1858,19 +1882,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>77</v>
+        <v>22</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K25">
-        <v>0.6818181818181818</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L25">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="M25">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1882,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1890,13 +1914,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.4516129032258064</v>
+        <v>0.4358974358974359</v>
       </c>
       <c r="C26">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D26">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1908,19 +1932,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K26">
-        <v>0.6785714285714286</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="L26">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M26">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1932,7 +1956,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1940,13 +1964,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.4375</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="C27">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D27">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1958,19 +1982,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K27">
-        <v>0.675</v>
+        <v>0.6818181818181818</v>
       </c>
       <c r="L27">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="M27">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1982,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1990,7 +2014,7 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.4333333333333333</v>
+        <v>0.4193548387096774</v>
       </c>
       <c r="C28">
         <v>13</v>
@@ -2008,19 +2032,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K28">
-        <v>0.6744186046511628</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="L28">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="M28">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2032,7 +2056,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2040,13 +2064,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.4102564102564102</v>
+        <v>0.40625</v>
       </c>
       <c r="C29">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D29">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2058,19 +2082,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K29">
-        <v>0.6470588235294118</v>
+        <v>0.6744186046511628</v>
       </c>
       <c r="L29">
-        <v>220</v>
+        <v>29</v>
       </c>
       <c r="M29">
-        <v>220</v>
+        <v>29</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2082,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>120</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2090,13 +2114,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.3733333333333334</v>
+        <v>0.4</v>
       </c>
       <c r="C30">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D30">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2108,19 +2132,19 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K30">
-        <v>0.6363636363636364</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L30">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M30">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2140,13 +2164,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.3636363636363636</v>
+        <v>0.3783783783783784</v>
       </c>
       <c r="C31">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D31">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2158,19 +2182,19 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K31">
-        <v>0.6285714285714286</v>
+        <v>0.638235294117647</v>
       </c>
       <c r="L31">
-        <v>22</v>
+        <v>217</v>
       </c>
       <c r="M31">
-        <v>22</v>
+        <v>217</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2182,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>13</v>
+        <v>123</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2211,16 +2235,16 @@
         <v>35</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K32">
-        <v>0.62</v>
+        <v>0.6285714285714286</v>
       </c>
       <c r="L32">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="M32">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2232,7 +2256,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2240,13 +2264,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.3571428571428572</v>
+        <v>0.3454545454545455</v>
       </c>
       <c r="C33">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D33">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2261,16 +2285,16 @@
         <v>36</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K33">
-        <v>0.6153846153846154</v>
+        <v>0.625</v>
       </c>
       <c r="L33">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="M33">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2282,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>25</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2290,13 +2314,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.2658730158730159</v>
+        <v>0.3444444444444444</v>
       </c>
       <c r="C34">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="D34">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2308,19 +2332,19 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>185</v>
+        <v>59</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K34">
-        <v>0.6086956521739131</v>
+        <v>0.625</v>
       </c>
       <c r="L34">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="M34">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2332,7 +2356,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2340,13 +2364,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.2597402597402597</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C35">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D35">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2358,19 +2382,19 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K35">
-        <v>0.602510460251046</v>
+        <v>0.6086956521739131</v>
       </c>
       <c r="L35">
-        <v>144</v>
+        <v>14</v>
       </c>
       <c r="M35">
-        <v>144</v>
+        <v>14</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2382,7 +2406,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>95</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2390,13 +2414,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.2444444444444444</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="C36">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D36">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2408,19 +2432,19 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K36">
-        <v>0.5728813559322034</v>
+        <v>0.6071428571428571</v>
       </c>
       <c r="L36">
-        <v>169</v>
+        <v>17</v>
       </c>
       <c r="M36">
-        <v>169</v>
+        <v>17</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2432,7 +2456,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>126</v>
+        <v>11</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2440,13 +2464,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.1875</v>
+        <v>0.2261904761904762</v>
       </c>
       <c r="C37">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="D37">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2458,19 +2482,19 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>65</v>
+        <v>195</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K37">
-        <v>0.5714285714285714</v>
+        <v>0.6060606060606061</v>
       </c>
       <c r="L37">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="M37">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2482,7 +2506,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2490,13 +2514,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.128686327077748</v>
+        <v>0.1447721179624665</v>
       </c>
       <c r="C38">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D38">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2508,19 +2532,19 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K38">
-        <v>0.5652173913043478</v>
+        <v>0.6</v>
       </c>
       <c r="L38">
-        <v>13</v>
+        <v>177</v>
       </c>
       <c r="M38">
-        <v>13</v>
+        <v>177</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2532,7 +2556,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>10</v>
+        <v>118</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -2540,13 +2564,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.06</v>
+        <v>0.05666666666666666</v>
       </c>
       <c r="C39">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D39">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2558,19 +2582,19 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K39">
-        <v>0.5638297872340425</v>
+        <v>0.6</v>
       </c>
       <c r="L39">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="M39">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2582,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>41</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -2590,37 +2614,37 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.0103126007089913</v>
+        <v>0.01119724375538329</v>
       </c>
       <c r="C40">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="D40">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="E40">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="F40">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="G40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H40">
-        <v>3071</v>
+        <v>1148</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K40">
-        <v>0.5357142857142857</v>
+        <v>0.5857740585774058</v>
       </c>
       <c r="L40">
-        <v>15</v>
+        <v>140</v>
       </c>
       <c r="M40">
-        <v>15</v>
+        <v>140</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2632,7 +2656,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>13</v>
+        <v>99</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -2640,37 +2664,37 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.009350163627863487</v>
+        <v>0.0103126007089913</v>
       </c>
       <c r="C41">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="D41">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="E41">
-        <v>0.17</v>
+        <v>0.11</v>
       </c>
       <c r="F41">
-        <v>0.83</v>
+        <v>0.89</v>
       </c>
       <c r="G41" t="b">
         <v>1</v>
       </c>
       <c r="H41">
-        <v>2119</v>
+        <v>3071</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K41">
-        <v>0.5151515151515151</v>
+        <v>0.574468085106383</v>
       </c>
       <c r="L41">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="M41">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2682,21 +2706,45 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>16</v>
+        <v>40</v>
       </c>
     </row>
     <row r="42" spans="1:17">
+      <c r="A42" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B42">
+        <v>0.008890968647636874</v>
+      </c>
+      <c r="C42">
+        <v>19</v>
+      </c>
+      <c r="D42">
+        <v>25</v>
+      </c>
+      <c r="E42">
+        <v>0.24</v>
+      </c>
+      <c r="F42">
+        <v>0.76</v>
+      </c>
+      <c r="G42" t="b">
+        <v>1</v>
+      </c>
+      <c r="H42">
+        <v>2118</v>
+      </c>
       <c r="J42" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K42">
-        <v>0.4857142857142857</v>
+        <v>0.5692307692307692</v>
       </c>
       <c r="L42">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="M42">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2708,15 +2756,15 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row r="43" spans="1:17">
       <c r="J43" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K43">
-        <v>0.4814814814814815</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="L43">
         <v>13</v>
@@ -2734,21 +2782,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="44" spans="1:17">
       <c r="J44" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K44">
-        <v>0.449438202247191</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="L44">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="M44">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2760,21 +2808,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>49</v>
+        <v>13</v>
       </c>
     </row>
     <row r="45" spans="1:17">
       <c r="J45" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K45">
-        <v>0.4313725490196079</v>
+        <v>0.5285714285714286</v>
       </c>
       <c r="L45">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="M45">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2786,21 +2834,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="46" spans="1:17">
       <c r="J46" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K46">
-        <v>0.4285714285714285</v>
+        <v>0.4814814814814815</v>
       </c>
       <c r="L46">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M46">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2812,21 +2860,21 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
     <row r="47" spans="1:17">
       <c r="J47" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K47">
-        <v>0.4222222222222222</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="L47">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M47">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2838,21 +2886,21 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="48" spans="1:17">
       <c r="J48" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K48">
-        <v>0.3220338983050847</v>
+        <v>0.4642857142857143</v>
       </c>
       <c r="L48">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M48">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2864,21 +2912,21 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>40</v>
+        <v>15</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K49">
-        <v>0.3013698630136986</v>
+        <v>0.4606741573033708</v>
       </c>
       <c r="L49">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="M49">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2890,21 +2938,21 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K50">
-        <v>0.282051282051282</v>
+        <v>0.4509803921568628</v>
       </c>
       <c r="L50">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M50">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2916,21 +2964,21 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>56</v>
+        <v>28</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K51">
-        <v>0.21875</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="L51">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="M51">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2942,21 +2990,21 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K52">
-        <v>0.1209677419354839</v>
+        <v>0.375</v>
       </c>
       <c r="L52">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="M52">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2968,21 +3016,21 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>109</v>
+        <v>40</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K53">
-        <v>0.1192660550458716</v>
+        <v>0.3013698630136986</v>
       </c>
       <c r="L53">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="M53">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2994,32 +3042,214 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>96</v>
+        <v>51</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K54">
-        <v>0.006581009088060169</v>
+        <v>0.2948717948717949</v>
       </c>
       <c r="L54">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M54">
+        <v>23</v>
+      </c>
+      <c r="N54">
+        <v>1</v>
+      </c>
+      <c r="O54">
+        <v>0</v>
+      </c>
+      <c r="P54" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q54">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="55" spans="10:17">
+      <c r="J55" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="K55">
+        <v>0.2711864406779661</v>
+      </c>
+      <c r="L55">
+        <v>16</v>
+      </c>
+      <c r="M55">
+        <v>16</v>
+      </c>
+      <c r="N55">
+        <v>1</v>
+      </c>
+      <c r="O55">
+        <v>0</v>
+      </c>
+      <c r="P55" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q55">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="56" spans="10:17">
+      <c r="J56" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="K56">
+        <v>0.2459016393442623</v>
+      </c>
+      <c r="L56">
+        <v>15</v>
+      </c>
+      <c r="M56">
+        <v>15</v>
+      </c>
+      <c r="N56">
+        <v>1</v>
+      </c>
+      <c r="O56">
+        <v>0</v>
+      </c>
+      <c r="P56" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q56">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="57" spans="10:17">
+      <c r="J57" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K57">
+        <v>0.2456140350877193</v>
+      </c>
+      <c r="L57">
+        <v>14</v>
+      </c>
+      <c r="M57">
+        <v>14</v>
+      </c>
+      <c r="N57">
+        <v>1</v>
+      </c>
+      <c r="O57">
+        <v>0</v>
+      </c>
+      <c r="P57" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q57">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="58" spans="10:17">
+      <c r="J58" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="K58">
+        <v>0.1296296296296296</v>
+      </c>
+      <c r="L58">
+        <v>14</v>
+      </c>
+      <c r="M58">
+        <v>15</v>
+      </c>
+      <c r="N58">
+        <v>0.93</v>
+      </c>
+      <c r="O58">
+        <v>0.06999999999999995</v>
+      </c>
+      <c r="P58" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q58">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="59" spans="10:17">
+      <c r="J59" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="K59">
+        <v>0.1129032258064516</v>
+      </c>
+      <c r="L59">
+        <v>14</v>
+      </c>
+      <c r="M59">
+        <v>14</v>
+      </c>
+      <c r="N59">
+        <v>1</v>
+      </c>
+      <c r="O59">
+        <v>0</v>
+      </c>
+      <c r="P59" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q59">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="60" spans="10:17">
+      <c r="J60" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="K60">
+        <v>0.08108108108108109</v>
+      </c>
+      <c r="L60">
+        <v>15</v>
+      </c>
+      <c r="M60">
+        <v>15</v>
+      </c>
+      <c r="N60">
+        <v>1</v>
+      </c>
+      <c r="O60">
+        <v>0</v>
+      </c>
+      <c r="P60" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q60">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="61" spans="10:17">
+      <c r="J61" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="K61">
+        <v>0.005957980558168705</v>
+      </c>
+      <c r="L61">
+        <v>19</v>
+      </c>
+      <c r="M61">
         <v>31</v>
       </c>
-      <c r="N54">
-        <v>0.68</v>
-      </c>
-      <c r="O54">
-        <v>0.32</v>
-      </c>
-      <c r="P54" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q54">
+      <c r="N61">
+        <v>0.61</v>
+      </c>
+      <c r="O61">
+        <v>0.39</v>
+      </c>
+      <c r="P61" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q61">
         <v>3170</v>
       </c>
     </row>
